--- a/datasets/glove-50-euclidean-true-labels.xlsx
+++ b/datasets/glove-50-euclidean-true-labels.xlsx
@@ -577,7 +577,7 @@
  6.1885 6.2051 6.2076 6.2093 6.2132 6.2144 6.2204 6.2267 6.2268 6.2274
  6.2275 6.2308 6.2421 6.2425 6.2489 6.2498 6.2522 6.2551 6.2584 6.2586
  6.2603 6.2604 6.2609 6.2629 6.2634 6.2639 6.2653 6.2718 6.2828 6.286
- 6.2876 6.2888 6.2911 6.3044 6.3069 6.307  6.3082 6.3087 6.3096 6.3113
+ 6.2876 6.2888 6.2911 6.3043 6.3069 6.307  6.3082 6.3087 6.3096 6.3113
  6.3129 6.3148 6.3189 6.3194 6.3225 6.3245 6.3288 6.3296 6.3297 6.3333
  6.3351 6.3389 6.34   6.3408 6.3417 6.3418 6.3445 6.3456 6.3492 6.3493
  6.3496 6.35   6.3514 6.3537 6.3565 6.357  6.3571 6.3574 6.3621 6.3629
@@ -613,7 +613,7 @@
  4.3198 4.3321 4.3371 4.3415 4.3474 4.3525 4.3531 4.3557 4.3597 4.3635
  4.3639 4.3676 4.3719 4.3721 4.3807 4.3825 4.3834 4.3855 4.3884 4.391
  4.3924 4.3932 4.3962 4.402  4.4078 4.4109 4.42   4.4208 4.4343 4.4359
- 4.4361 4.4369 4.4375 4.4412 4.4423 4.4424 4.4444 4.4474 4.448  4.4494
+ 4.4361 4.4369 4.4375 4.4412 4.4423 4.4424 4.4444 4.4474 4.4481 4.4494
  4.4512 4.452  4.4561 4.457  4.4575 4.4593 4.4626 4.4634 4.4637 4.4674
  4.4685 4.4686 4.4712 4.4724 4.4732 4.4756 4.4772 4.4782 4.4788 4.479
  4.479  4.4803 4.4803 4.4818 4.4821 4.4837 4.4838 4.4884 4.4885 4.489 ]</t>
@@ -1381,7 +1381,7 @@
  2.6783 2.7049 2.7234 2.7264 2.7265 2.7547 2.7586 2.7868 2.8037 2.8202
  2.8363 2.8395 2.8614 2.8678 2.8687 2.8724 2.8862 2.8903 2.8943 2.8954
  2.9064 2.9098 2.9099 2.9099 2.9103 2.9141 2.9156 2.934  2.9355 2.9405
- 2.951  2.9513 2.9563 2.9587 2.9648 2.972  2.9857 2.9879 2.9899 2.9995
+ 2.9509 2.9513 2.9563 2.9587 2.9648 2.972  2.9857 2.9879 2.9899 2.9995
  3.001  3.0011 3.0036 3.0071 3.0088 3.0091 3.0105 3.0155 3.017  3.0177
  3.0194 3.0198 3.0204 3.0221 3.0336 3.0342 3.0346 3.0355 3.0374 3.038
  3.0386 3.0405 3.0472 3.0511 3.0519 3.0539 3.0546 3.0555 3.0559 3.0569
@@ -5116,7 +5116,7 @@
   737569 1169656  396248  765304  716870  662809  872904  914737  353517
   495939  611350 1053762 1008121  748112  613425 1148891   10501  835636
   306489  635213   41631  874148  411249  107560  779041  960918 1117033
-  757394 1062309  839625 1049476   22949  542621  207690  382323  535104
+  757394 1062309  839625   22949 1049476  542621  207690  382323  535104
   144358]</t>
         </is>
       </c>
@@ -6631,7 +6631,7 @@
  7.7552 7.7645 7.7735 7.7844 7.7983 7.8058 7.8304 7.8429 7.8594 7.863
  7.8658 7.8698 7.8726 7.8824 7.888  7.8907 7.8918 7.8931 7.8941 7.9088
  7.9089 7.9102 7.9117 7.9149 7.9173 7.919  7.9221 7.9261 7.9271 7.9283
- 7.9403 7.9433 7.9449 7.9495 7.9505 7.9518 7.9552 7.9575 7.9579 7.9594
+ 7.9403 7.9433 7.9448 7.9495 7.9505 7.9518 7.9552 7.9575 7.9579 7.9594
  7.9595 7.9602 7.961  7.963  7.9692 7.9703 7.9705 7.9724 7.9733 7.9754
  7.9775 7.9777 7.9789 7.9792 7.9833 7.9833 7.9841 7.9843 7.9888 7.9898
  7.9907 7.9912 7.9944 7.9947 7.9962 7.999  8.0059 8.0068 8.01   8.011
@@ -9525,7 +9525,7 @@
   322863  170052  908520  809482  194866  913588   46093 1098900  165648
    83366  588938  556120 1038234 1179603  327469  298642  981195  961247
   572699  161290  838531 1018482   95745  121320   75653  249673 1119128
-  265388  212816 1022481  246747  699057  173584   15380  874485 1109402
+  265388 1022481  212816  246747  699057  173584   15380  874485 1109402
   602930  619447  244690  516985  813195  142272  208052  809960 1112695
   823085]</t>
         </is>
@@ -9645,7 +9645,7 @@
  3.6042 3.6055 3.6058 3.6093 3.6135 3.6144 3.6156 3.6177 3.6191 3.6196
  3.6201 3.6204 3.6221 3.623  3.6233 3.6256 3.6282 3.6286 3.6305 3.631
  3.632  3.6373 3.6376 3.6388 3.6409 3.6451 3.6458 3.6467 3.6511 3.6516
- 3.6576 3.6579 3.6588 3.6604 3.6605 3.6612 3.6626 3.6627 3.6629 3.6633
+ 3.6576 3.6579 3.6588 3.6604 3.6605 3.6612 3.6626 3.6627 3.663  3.6633
  3.6661 3.6672 3.6674 3.6677 3.6688 3.6697 3.6715 3.6722 3.6723 3.6731]</t>
         </is>
       </c>
@@ -9952,7 +9952,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>[3.2296 3.3961 3.4096 3.4244 3.4293 3.4497 3.456  3.4768 3.4802 3.4932
+          <t>[3.2296 3.3961 3.4096 3.4244 3.4293 3.4497 3.456  3.4768 3.4801 3.4932
  3.5087 3.5172 3.5185 3.5317 3.5502 3.5511 3.5551 3.5558 3.5601 3.5898
  3.5957 3.5965 3.5967 3.6035 3.6188 3.6208 3.6332 3.6371 3.64   3.642
  3.6455 3.6486 3.6489 3.6495 3.6518 3.6555 3.6571 3.6616 3.6622 3.6637
@@ -10059,7 +10059,7 @@
         <is>
           <t>[3.3217 3.3299 3.4225 3.5153 3.5224 3.5433 3.5465 3.564  3.5734 3.5805
  3.595  3.5964 3.604  3.6123 3.6162 3.6186 3.6192 3.622  3.6372 3.6375
- 3.6458 3.65   3.6513 3.6574 3.6587 3.6589 3.6649 3.6697 3.6731 3.6747
+ 3.6458 3.65   3.6513 3.6574 3.6586 3.6589 3.6649 3.6697 3.6731 3.6747
  3.6758 3.6788 3.6821 3.6851 3.6936 3.6974 3.6977 3.7002 3.7016 3.7069
  3.7076 3.7104 3.7107 3.7156 3.717  3.7186 3.7195 3.7195 3.7219 3.7229
  3.7235 3.7257 3.7275 3.7283 3.7284 3.7296 3.7326 3.7332 3.7334 3.7354
@@ -10346,7 +10346,7 @@
  4.0224 4.0241 4.0264 4.027  4.0274 4.0331 4.0331 4.0346 4.0369 4.0399
  4.0412 4.0434 4.0497 4.0527 4.0536 4.0546 4.0549 4.055  4.0555 4.0625
  4.0643 4.0665 4.068  4.0685 4.0703 4.0721 4.0722 4.0767 4.0797 4.0813
- 4.0843 4.0866 4.0866 4.0883 4.0919 4.094  4.0955 4.0961 4.0965 4.0972]</t>
+ 4.0843 4.0866 4.0866 4.0883 4.0919 4.094  4.0954 4.0961 4.0965 4.0972]</t>
         </is>
       </c>
     </row>
@@ -10869,7 +10869,7 @@
  8.0731 8.093  8.1023 8.1198 8.1258 8.1278 8.1343 8.1374 8.1392 8.147
  8.1491 8.1503 8.1592 8.16   8.1608 8.1616 8.1633 8.1708 8.1714 8.1733
  8.1746 8.1794 8.1839 8.1845 8.1849 8.1856 8.1858 8.1866 8.1897 8.1938
- 8.1951 8.1956 8.2008 8.2048 8.2082 8.2084 8.2106 8.2116 8.2121 8.213
+ 8.1951 8.1956 8.2008 8.2048 8.2081 8.2084 8.2106 8.2116 8.2121 8.213
  8.2139 8.2153 8.2163 8.2194 8.22   8.221  8.2228 8.226  8.2279 8.2296
  8.2313 8.2344 8.2354 8.2406 8.2454 8.2476 8.2494 8.2497 8.2518 8.2564]</t>
         </is>
@@ -11948,7 +11948,7 @@
       <c r="C330" t="inlineStr">
         <is>
           <t>[2.4939 2.4984 2.5046 2.5067 2.5321 2.5381 2.5603 2.566  2.6197 2.6683
- 2.6868 2.6929 2.7094 2.7226 2.7252 2.7377 2.7445 2.7486 2.7599 2.7821
+ 2.6868 2.693  2.7094 2.7226 2.7252 2.7377 2.7445 2.7486 2.7599 2.7821
  2.7886 2.8031 2.8043 2.8178 2.8228 2.8251 2.8268 2.8397 2.8439 2.8466
  2.8467 2.847  2.8624 2.8647 2.873  2.874  2.8747 2.8777 2.8843 2.8888
  2.8919 2.8981 2.8999 2.9046 2.9063 2.9107 2.9133 2.9211 2.9222 2.9239
@@ -12930,7 +12930,7 @@
           <t>[1.423  1.8219 1.8444 1.9349 2.0218 2.0417 2.1114 2.1127 2.1128 2.1312
  2.1457 2.1641 2.1711 2.2296 2.239  2.2409 2.2622 2.2689 2.2692 2.2738
  2.2746 2.2822 2.2951 2.2954 2.3049 2.3154 2.3193 2.3256 2.3258 2.3263
- 2.3268 2.3358 2.3385 2.3446 2.3473 2.3477 2.354  2.3617 2.3693 2.371
+ 2.3269 2.3358 2.3385 2.3446 2.3473 2.3477 2.354  2.3617 2.3693 2.371
  2.3726 2.3743 2.3743 2.3744 2.3752 2.3763 2.3828 2.3843 2.3853 2.3926
  2.3933 2.3953 2.3953 2.3969 2.3984 2.3997 2.3999 2.4029 2.4046 2.4061
  2.4076 2.4109 2.4172 2.4208 2.4209 2.4222 2.4245 2.4306 2.4332 2.434
@@ -15664,7 +15664,7 @@
  5.306  5.3075 5.3114 5.3116 5.3149 5.3157 5.3182 5.3299 5.33   5.332
  5.3346 5.3373 5.3383 5.3433 5.3446 5.3459 5.3485 5.3524 5.3531 5.3582
  5.3603 5.369  5.3713 5.3745 5.3745 5.3766 5.3799 5.3837 5.3885 5.3901
- 5.3909 5.3934 5.3941 5.397  5.3978 5.3981 5.4022 5.4033 5.4034 5.4077
+ 5.3909 5.3934 5.3941 5.397  5.3978 5.3981 5.4022 5.4033 5.4034 5.4076
  5.4102 5.4103 5.411  5.418  5.4191 5.4192 5.4193 5.4193 5.4208 5.4214
  5.4246 5.4249 5.4263 5.4266 5.4286 5.4296 5.4313 5.4316 5.432  5.4331]</t>
         </is>
@@ -17059,7 +17059,7 @@
         <is>
           <t>[3.7251 3.8415 3.8426 3.8818 3.9117 3.9441 3.9471 3.9498 3.9548 3.9793
  3.9848 3.9886 4.0067 4.0173 4.0271 4.0334 4.0366 4.0668 4.0877 4.0901
- 4.0969 4.102  4.1032 4.106  4.1065 4.1093 4.115  4.1181 4.1299 4.1306
+ 4.0969 4.102  4.1032 4.106  4.1065 4.1093 4.115  4.118  4.1299 4.1306
  4.1374 4.1407 4.1414 4.1417 4.1423 4.1425 4.1469 4.1479 4.1554 4.157
  4.1663 4.1691 4.1699 4.1747 4.176  4.1857 4.1868 4.192  4.194  4.1963
  4.1979 4.2037 4.2066 4.2069 4.2089 4.2132 4.2136 4.2137 4.2137 4.2157
@@ -18040,7 +18040,7 @@
           <t>[3.1048 3.1966 3.2774 3.3056 3.3615 3.3645 3.3864 3.4291 3.4472 3.4476
  3.454  3.4564 3.502  3.5054 3.5315 3.5383 3.5526 3.5577 3.5643 3.5799
  3.5862 3.5924 3.624  3.6329 3.6364 3.6481 3.6483 3.6521 3.6605 3.6668
- 3.6745 3.6779 3.6782 3.6858 3.6863 3.6875 3.6938 3.7092 3.7127 3.7146
+ 3.6745 3.6779 3.6782 3.6858 3.6862 3.6875 3.6938 3.7092 3.7127 3.7146
  3.7178 3.727  3.7298 3.7366 3.7439 3.7462 3.7463 3.7476 3.7479 3.7481
  3.7484 3.7501 3.7508 3.7554 3.7612 3.7618 3.7622 3.7717 3.7732 3.7751
  3.7767 3.7774 3.7795 3.7834 3.7941 3.7942 3.7981 3.7989 3.7992 3.7996
@@ -18220,7 +18220,7 @@
  3.4601 3.4602 3.4617 3.4618 3.4648 3.4656 3.4695 3.4721 3.4732 3.4747
  3.4748 3.4753 3.4785 3.4812 3.4818 3.4829 3.4864 3.4864 3.4865 3.488
  3.4887 3.4891 3.49   3.4914 3.492  3.4931 3.4982 3.4993 3.4997 3.5023
- 3.5045 3.5056 3.5063 3.5069 3.5074 3.5155 3.5163 3.5184 3.519  3.5213
+ 3.5045 3.5056 3.5063 3.5069 3.5074 3.5155 3.5163 3.5184 3.5191 3.5213
  3.5214 3.5217 3.5218 3.5219 3.5225 3.5226 3.5231 3.5233 3.5265 3.5269]</t>
         </is>
       </c>
@@ -18250,7 +18250,7 @@
           <t>[3.1609 4.4251 4.5472 4.5545 4.5648 4.5747 4.5771 4.5782 4.5784 4.638
  4.64   4.656  4.6674 4.6708 4.6762 4.6824 4.6991 4.7031 4.7137 4.7682
  4.7992 4.8153 4.8195 4.8215 4.8252 4.8344 4.8403 4.8706 4.8713 4.8815
- 4.8887 4.8904 4.8958 4.8986 4.9003 4.9008 4.9095 4.9143 4.9193 4.9194
+ 4.8887 4.8904 4.8958 4.8986 4.9003 4.9008 4.9095 4.9143 4.9193 4.9195
  4.924  4.9317 4.9384 4.9458 4.9529 4.9559 4.956  4.9612 4.9644 4.966
  4.9717 4.9736 4.9801 4.9824 4.9859 4.9922 4.996  4.9966 4.9984 5.0041
  5.0046 5.0053 5.0058 5.0095 5.0102 5.0108 5.0117 5.013  5.016  5.0161
@@ -19898,7 +19898,7 @@
  3.5043 3.5181 3.5238 3.5414 3.5434 3.546  3.5474 3.5553 3.5571 3.562
  3.568  3.5732 3.5745 3.5788 3.5797 3.5831 3.5861 3.5862 3.5866 3.588
  3.5887 3.589  3.5976 3.5997 3.6113 3.616  3.6167 3.617  3.6191 3.6227
- 3.6237 3.6307 3.6316 3.6325 3.6328 3.6368 3.6418 3.6436 3.6448 3.6508
+ 3.6237 3.6307 3.6316 3.6325 3.6328 3.6368 3.6418 3.6436 3.6449 3.6508
  3.6533 3.656  3.656  3.6562 3.659  3.6594 3.6607 3.669  3.6696 3.6751
  3.6778 3.6788 3.682  3.6824 3.6832 3.6839 3.6886 3.6919 3.697  3.7045
  3.7075 3.7083 3.7113 3.712  3.7126 3.7135 3.7187 3.7204 3.7315 3.735 ]</t>
@@ -21787,7 +21787,7 @@
  5.4599 5.4628 5.465  5.4799 5.4911 5.4953 5.4965 5.501  5.5103 5.5139
  5.5218 5.5404 5.5458 5.5515 5.5521 5.554  5.5564 5.562  5.5671 5.5672
  5.5721 5.575  5.5771 5.578  5.5803 5.5839 5.5845 5.5893 5.5899 5.5922
- 5.5961 5.5966 5.6027 5.6053 5.6097 5.6098 5.6155 5.6172 5.6174 5.6175
+ 5.5961 5.5966 5.6027 5.6053 5.6097 5.6098 5.6155 5.6171 5.6174 5.6175
  5.6181 5.6181 5.6194 5.6201 5.6302 5.6315 5.6323 5.6332 5.6334 5.6363
  5.6366 5.6377 5.6398 5.6417 5.6419 5.6423 5.6449 5.647  5.6474 5.6481
  5.6495 5.6495 5.6514 5.6566 5.6589 5.6634 5.6639 5.6645 5.6654 5.6664
@@ -22134,7 +22134,7 @@
         <is>
           <t>[2.6868 2.7036 2.8014 2.8136 2.8359 2.8397 2.8688 2.8796 2.906  2.9198
  2.9363 2.9407 2.9541 2.9644 2.9747 2.9826 2.983  2.9854 2.9926 2.9967
- 2.9995 3.0023 3.0031 3.0072 3.0089 3.0157 3.0225 3.0225 3.0235 3.0247
+ 2.9995 3.0023 3.0031 3.0072 3.0089 3.0158 3.0225 3.0225 3.0235 3.0247
  3.0276 3.0342 3.0403 3.0413 3.0441 3.0488 3.0523 3.0564 3.0603 3.0619
  3.0689 3.0731 3.0739 3.0847 3.0871 3.0883 3.0955 3.0963 3.0982 3.1014
  3.1033 3.1088 3.1098 3.111  3.1137 3.1187 3.1243 3.125  3.1253 3.129
@@ -22377,7 +22377,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>[4.2311 4.2906 4.3305 4.3418 4.3566 4.3696 4.3753 4.3791 4.3808 4.3845
+          <t>[4.2311 4.2906 4.3305 4.3418 4.3566 4.3696 4.3753 4.3791 4.3807 4.3845
  4.4126 4.4215 4.4279 4.4471 4.4471 4.4499 4.4575 4.4586 4.4631 4.4672
  4.4743 4.4805 4.4809 4.4904 4.5075 4.5087 4.5103 4.5147 4.5196 4.5306
  4.5325 4.5359 4.5365 4.5368 4.5395 4.5406 4.5444 4.5464 4.5479 4.555
@@ -22613,7 +22613,7 @@
   105255 1157476  780099   38131  555945  655450  352648  707358  377389
   147579  474726  553999  935988  627432   79029  322017  616821  655784
   774534  875881  912703  659344 1163106  239259  434773  101076  549443
- 1032573  781564   69885  887101  916832 1144166  213305  319318  509009
+ 1032573  781564   69885  887101  916832 1144166  319318  213305  509009
   520847  982758  211237  382981   69102  679095  888883 1110835  790923
   874491  323725  475299  901141  930117  487477 1095698  427339  743757
   314602  772209  235231 1070662  970991  834163  691041  311793  792510
@@ -22906,7 +22906,7 @@
  2.3269 2.3418 2.354  2.3546 2.358  2.392  2.397  2.4    2.4037 2.4137
  2.4151 2.442  2.4441 2.4514 2.4566 2.4569 2.4578 2.4584 2.4607 2.4621
  2.4637 2.4658 2.4692 2.4828 2.4829 2.4839 2.4845 2.4892 2.49   2.4906
- 2.494  2.4941 2.4942 2.4951 2.5    2.5008 2.5018 2.5019 2.5034 2.5042
+ 2.494  2.4941 2.4942 2.4951 2.5    2.5007 2.5018 2.5019 2.5034 2.5042
  2.5062 2.5067 2.5078 2.5116 2.5118 2.517  2.5178 2.5197 2.5278 2.5322
  2.5333 2.5353 2.5391 2.5415 2.5445 2.5446 2.545  2.5457 2.5471 2.5486
  2.5492 2.5497 2.5503 2.551  2.5525 2.5536 2.5556 2.5629 2.5714 2.5748
@@ -23049,7 +23049,7 @@
  3.3221 3.3316 3.3329 3.3345 3.3374 3.3383 3.3442 3.355  3.355  3.3638
  3.3654 3.3672 3.3684 3.3714 3.374  3.3752 3.3824 3.3831 3.3839 3.3937
  3.3958 3.4025 3.4074 3.4102 3.4109 3.4122 3.4157 3.418  3.422  3.4285
- 3.4295 3.4297 3.4329 3.4332 3.4378 3.4389 3.4416 3.4426 3.4442 3.4444
+ 3.4295 3.4297 3.433  3.4332 3.4378 3.4389 3.4416 3.4426 3.4442 3.4444
  3.4453 3.4462 3.4599 3.4645 3.468  3.4696 3.4701 3.4729 3.4736 3.4783
  3.4807 3.4826 3.4859 3.4889 3.4892 3.4896 3.4906 3.4947 3.4965 3.5004]</t>
         </is>
@@ -23394,7 +23394,7 @@
         <is>
           <t>[2.9883 3.1327 3.2434 3.255  3.4362 3.5785 3.5806 3.6253 3.6309 3.6729
  3.6868 3.7138 3.7226 3.736  3.7405 3.775  3.7855 3.8177 3.8208 3.8948
- 3.91   3.9104 3.9193 3.9304 3.9304 3.9315 3.9325 3.9325 3.9378 3.9449
+ 3.9099 3.9104 3.9193 3.9304 3.9304 3.9315 3.9325 3.9325 3.9378 3.9449
  3.9468 3.9632 3.9749 3.9914 3.9935 4.0004 4.0039 4.0039 4.0099 4.01
  4.0203 4.0274 4.029  4.0307 4.0332 4.0543 4.0565 4.0593 4.0655 4.0754
  4.0767 4.1005 4.1157 4.1227 4.1301 4.1367 4.1643 4.1644 4.1652 4.1715
@@ -23958,7 +23958,7 @@
  4.763  4.77   4.7768 4.7771 4.7775 4.7844 4.8009 4.8012 4.8118 4.8173
  4.8179 4.8212 4.8281 4.8342 4.8394 4.8476 4.8481 4.8515 4.8585 4.8607
  4.8648 4.8674 4.8676 4.8695 4.8759 4.8784 4.8788 4.8802 4.8814 4.8839
- 4.8877 4.8939 4.907  4.9075 4.9088 4.9089 4.9109 4.9158 4.9166 4.9176
+ 4.8878 4.8939 4.907  4.9075 4.9088 4.9089 4.9109 4.9158 4.9166 4.9176
  4.9179 4.9187 4.9251 4.9254 4.9299 4.931  4.9314 4.9328 4.9341 4.9356
  4.9395 4.9417 4.9425 4.9429 4.9439 4.946  4.9501 4.9512 4.9515 4.9575
  4.9577 4.9587 4.96   4.9622 4.9624 4.9668 4.9678 4.9693 4.9703 4.9708]</t>
@@ -24624,7 +24624,7 @@
  4.0326 4.0356 4.0364 4.0502 4.0587 4.0652 4.0655 4.0681 4.0708 4.0716
  4.0864 4.101  4.105  4.1082 4.1103 4.1158 4.1248 4.1261 4.1272 4.128
  4.134  4.135  4.1371 4.1465 4.1513 4.168  4.1716 4.1725 4.179  4.1839
- 4.1843 4.1853 4.1925 4.1952 4.1955 4.1998 4.2009 4.2051 4.2126 4.213
+ 4.1843 4.1854 4.1925 4.1952 4.1955 4.1998 4.2009 4.2051 4.2126 4.213
  4.2162 4.2181 4.2246 4.227  4.2277 4.2338 4.2347 4.2351 4.2363 4.2381
  4.243  4.2449 4.2456 4.2469 4.2487 4.2492 4.2521 4.2586 4.2685 4.2694]</t>
         </is>
@@ -25358,7 +25358,7 @@
  2.8451 2.8477 2.8485 2.8497 2.8511 2.8585 2.8613 2.8616 2.8653 2.8655
  2.8687 2.8713 2.8715 2.8722 2.8732 2.8751 2.8779 2.8793 2.881  2.8812
  2.8835 2.8853 2.886  2.8881 2.8918 2.8919 2.8919 2.892  2.8924 2.8931
- 2.8944 2.8944 2.8946 2.8948 2.9001 2.9005 2.9011 2.903  2.903  2.903
+ 2.8944 2.8944 2.8946 2.8948 2.9001 2.9005 2.9011 2.9029 2.903  2.903
  2.904  2.9082 2.9098 2.9098 2.9112 2.9117 2.914  2.9154 2.9157 2.916
  2.9185 2.9193 2.9219 2.9223 2.9226 2.9267 2.9272 2.9276 2.9276 2.9345
  2.9348 2.9374 2.939  2.9394 2.9399 2.9439 2.9452 2.9466 2.9468 2.9476]</t>
@@ -26306,7 +26306,7 @@
  3.7422 3.7431 3.7433 3.7456 3.7538 3.7566 3.7644 3.7655 3.77   3.7703
  3.7729 3.7731 3.7736 3.7821 3.7934 3.7934 3.7942 3.7966 3.7998 3.8029
  3.8031 3.8054 3.8056 3.8064 3.8076 3.8131 3.8137 3.8168 3.8194 3.8206
- 3.8227 3.8239 3.825  3.8304 3.8305 3.8313 3.8351 3.8357 3.8364 3.8373]</t>
+ 3.8227 3.8239 3.825  3.8304 3.8305 3.8313 3.8352 3.8357 3.8364 3.8373]</t>
         </is>
       </c>
     </row>
@@ -29229,7 +29229,7 @@
   723812  818160 1137968 1050441  896506  277165  724155  734040 1016519
   865283  653946  881441 1003869  739222  305634  941937  416162   91089
  1094057  624798  301389  829521  814811  881215 1019111  166324 1086685
- 1144626  635808 1138300 1096586  225131  749342  540719  102150 1001654
+ 1144626  635808 1138300 1096586  225131  749342  102150  540719 1001654
    29998  787942  932954  548861 1110553  469892  356995  938833 1026800
   561989   51483 1033310  629789  728396  292282  821173 1126354  713982
   864883]</t>
@@ -30571,7 +30571,7 @@
  5.7276 5.7419 5.7787 5.7829 5.7889 5.8027 5.8243 5.8247 5.8336 5.8398
  5.8468 5.8476 5.8637 5.8675 5.8689 5.8812 5.8821 5.8825 5.8905 5.8909
  5.8984 5.9136 5.9165 5.9227 5.9238 5.9359 5.9421 5.9427 5.9454 5.9492
- 5.9514 5.9608 5.9646 5.9654 5.9678 5.9689 5.9724 5.9731 5.9738 5.974
+ 5.9514 5.9608 5.9646 5.9654 5.9678 5.9689 5.9724 5.9732 5.9738 5.974
  5.9797 5.9854 5.9928 5.9975 6.0023 6.0071 6.0072 6.0082 6.0093 6.0099
  6.0108 6.0128 6.0138 6.0142 6.0158 6.0187 6.0219 6.0227 6.0227 6.0282
  6.0293 6.0305 6.0322 6.0331 6.0332 6.0332 6.0341 6.0376 6.0395 6.0453
@@ -32249,7 +32249,7 @@
         <is>
           <t>[2.3876 2.407  2.5677 2.5696 2.5727 2.5759 2.5815 2.5836 2.5876 2.593
  2.6141 2.6205 2.6239 2.6312 2.6391 2.6559 2.6578 2.6603 2.6653 2.6745
- 2.6849 2.6855 2.6866 2.6911 2.6998 2.7079 2.7101 2.7119 2.7145 2.7169
+ 2.6849 2.6855 2.6866 2.6911 2.6998 2.7079 2.71   2.7119 2.7145 2.7169
  2.7241 2.7297 2.7305 2.7314 2.732  2.7373 2.7466 2.7528 2.7574 2.7575
  2.7576 2.7586 2.7601 2.7609 2.7664 2.7693 2.7715 2.7751 2.7782 2.7797
  2.7801 2.7802 2.7838 2.7847 2.7863 2.7884 2.796  2.7968 2.7981 2.7985
@@ -33079,7 +33079,7 @@
   884531 1179984  995598  119121  480469  468952  474410   32540   90280
  1168161   64516  658244  695987 1156544  833961  992315  505394  630075
   125967  866072  719582 1052424  789878   52541  253547  776059   40965
-  124615   48076  769574  449622   97700  495457 1022517  642699   65449
+   48076  124615  769574  449622   97700  495457 1022517  642699   65449
   580039  188854  916656  518806  954870  280013  988623  627253 1176706
   702448  506403  971682  363315 1033252  933617   61889 1047318  379898
   716524]</t>
@@ -33297,7 +33297,7 @@
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>[4.0072 4.1072 4.1276 4.136  4.1789 4.2125 4.2151 4.2341 4.2452 4.2452
+          <t>[4.0072 4.1072 4.1276 4.1361 4.1789 4.2125 4.2151 4.2341 4.2452 4.2452
  4.2493 4.2543 4.2741 4.2761 4.2792 4.2837 4.2878 4.2993 4.3031 4.304
  4.318  4.3181 4.3195 4.3212 4.3346 4.3372 4.339  4.3412 4.3412 4.3437
  4.3471 4.349  4.3506 4.3555 4.3569 4.3611 4.3621 4.3659 4.3726 4.375
@@ -35090,7 +35090,7 @@
  3.2706 3.2769 3.2881 3.2881 3.2901 3.2912 3.2972 3.2999 3.3032 3.3037
  3.3076 3.3112 3.3116 3.3117 3.3123 3.3126 3.3246 3.3258 3.3274 3.3299
  3.3337 3.335  3.3398 3.3443 3.3444 3.3494 3.3564 3.358  3.3586 3.3593
- 3.3597 3.3643 3.3651 3.3654 3.3669 3.3676 3.375  3.3756 3.3757 3.3777
+ 3.3597 3.3643 3.3651 3.3654 3.3668 3.3676 3.375  3.3756 3.3757 3.3777
  3.3824 3.3843 3.3883 3.3917 3.3932 3.3953 3.397  3.3979 3.3991 3.4013]</t>
         </is>
       </c>
